--- a/00_プロジェクト管理/09_WBSガントチャート.xlsx
+++ b/00_プロジェクト管理/09_WBSガントチャート.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{5BC64D22-415E-4132-BAC6-951F17508F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA1ABB7D-79F0-4E7B-B766-36FAEFF64B7B}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{5BC64D22-415E-4132-BAC6-951F17508F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{425DDC1F-3819-4EC8-9A90-602F4E62C197}"/>
   <bookViews>
     <workbookView xWindow="9825" yWindow="60" windowWidth="10605" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <definedName name="Z_EDE81CA1_484F_45F9_B8CA_0958EC6CFEE2_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
     <definedName name="Z_F55870F9_E82A_4267_AED3_94CF07AEF80F_.wvu.FilterData" localSheetId="0">反復1!$A$2:$K$112</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -95,8 +95,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>タスク/ワークパッケージ</t>
   </si>
@@ -639,7 +661,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1321,19 +1343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1346,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,13 +1495,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1709,21 +1715,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -2313,10 +2305,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="M76" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Q92" sqref="Q92"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J27" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5"/>
@@ -2335,120 +2327,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A1" s="98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="95" t="s">
+      <c r="A1" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="79">
+      <c r="L1" s="78">
         <v>43984</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="79">
+      <c r="M1" s="79"/>
+      <c r="N1" s="78">
         <v>43985</v>
       </c>
-      <c r="O1" s="80"/>
-      <c r="P1" s="79">
+      <c r="O1" s="79"/>
+      <c r="P1" s="78">
         <v>43986</v>
       </c>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="79">
+      <c r="Q1" s="79"/>
+      <c r="R1" s="78">
         <v>43987</v>
       </c>
-      <c r="S1" s="80"/>
+      <c r="S1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A2" s="99"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="83" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="84" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="81" t="s">
+      <c r="Q2" s="81"/>
+      <c r="R2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="82"/>
+      <c r="S2" s="81"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="87" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="86"/>
-      <c r="N3" s="85" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="85" t="s">
+      <c r="O3" s="85"/>
+      <c r="P3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="85"/>
+      <c r="R3" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="88"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="100"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="91"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2475,15 +2467,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="119"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2491,7 +2483,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f>SUM(K7,K23,K43,K59,K77,K85,K99)</f>
-        <v>83.75</v>
+        <v>79.25</v>
       </c>
       <c r="L5" s="27">
         <f>SUM(L7,L23,L43,L59,L77,L85,L99)</f>
@@ -2499,23 +2491,23 @@
       </c>
       <c r="M5" s="27">
         <f t="shared" ref="M5:S5" si="0">SUM(M7,M23,M43,M59,M77,M85,M99)</f>
-        <v>17.75</v>
+        <v>15.55</v>
       </c>
       <c r="N5" s="27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="O5" s="27">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P5" s="27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>13.75</v>
+        <v>14.850000000000001</v>
       </c>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
@@ -2527,13 +2519,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="120"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2541,51 +2533,51 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f>SUM(L8,L24,L44,L60,L78,L86)</f>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="47">
-        <f t="shared" ref="L6:S6" si="1">SUM(M8,M24,M44,M60,M78,M86)</f>
-        <v>0</v>
+        <f>SUM(L8,L24,L44,L60,L78,L86)</f>
+        <v>4</v>
       </c>
       <c r="M6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(M8,M24,M44,M60,M78,M86)</f>
+        <v>12</v>
       </c>
       <c r="N6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(N8,N24,N44,N60,N78,N86)</f>
+        <v>2.8</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(O8,O24,O44,O60,O78,O86)</f>
+        <v>15.8</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(P8,P24,P44,P60,P78,P86)</f>
         <v>0</v>
       </c>
       <c r="Q6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(Q8,Q24,Q44,Q60,Q78,Q86)</f>
         <v>0</v>
       </c>
       <c r="R6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(R8,R24,R44,R60,R78,R86)</f>
         <v>0</v>
       </c>
       <c r="S6" s="47">
-        <f t="shared" si="1"/>
+        <f>SUM(S8,S24,S44,S60,S78,S86)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="112"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2596,46 +2588,46 @@
         <v>7.25</v>
       </c>
       <c r="L7" s="40">
-        <f t="shared" ref="L7:S7" si="2">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
+        <f t="shared" ref="L7:S7" si="1">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>7.25</v>
       </c>
       <c r="M7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="113"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2643,57 +2635,57 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="38">
-        <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>1.5</v>
+        <v>8.25</v>
+      </c>
+      <c r="L8" s="38" cm="1">
+        <f t="array" ref="L8">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
+        <v>4</v>
       </c>
       <c r="M8" s="29">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="L8:S8" si="2">SUMPRODUCT((MOD(ROW(M$9:M$22),2)=0)*M$9:M$22)</f>
+        <v>4.25</v>
       </c>
       <c r="N8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S8" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1">
-      <c r="A9" s="68">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="60" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2711,13 +2703,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="55"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2735,21 +2727,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="70" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2776,19 +2768,23 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="53" t="str">
+      <c r="A12" s="68"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
       <c r="K12" s="10">
         <f>SUM(L12:S12)</f>
         <v>1.5</v>
@@ -2805,21 +2801,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="70" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2846,24 +2842,30 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="53" t="str">
+      <c r="A14" s="68"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="I14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="41"/>
+        <v>2.5</v>
+      </c>
+      <c r="L14" s="41">
+        <v>2.5</v>
+      </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -2873,17 +2875,17 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1">
-      <c r="A15" s="68">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="54"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v/>
@@ -2901,13 +2903,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="55"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v/>
@@ -2925,17 +2927,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1">
-      <c r="A17" s="68"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="58"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2947,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K22" si="4">SUM(L17:S17)</f>
+        <f t="shared" ref="K17:K22" si="3">SUM(L17:S17)</f>
         <v>1.25</v>
       </c>
       <c r="L17" s="30">
@@ -2963,25 +2965,31 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="53" t="str">
+      <c r="A18" s="68"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v/>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
+      <c r="I18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="8">
+        <v>5</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+      <c r="L18" s="30"/>
+      <c r="M18" s="32">
+        <v>1.25</v>
+      </c>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -2990,17 +2998,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1">
-      <c r="A19" s="68"/>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3012,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="L19" s="33">
@@ -3028,25 +3036,32 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="53" t="str">
+      <c r="A20" s="68"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v/>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
+      <c r="I20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="8">
+        <v>5</v>
+      </c>
       <c r="K20" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="41"/>
-      <c r="M20" s="32"/>
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
@@ -3055,17 +3070,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1">
-      <c r="A21" s="68"/>
-      <c r="B21" s="70" t="s">
+      <c r="A21" s="67"/>
+      <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="58"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8" t="s">
         <v>35</v>
@@ -3074,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L21" s="33">
@@ -3090,25 +3105,28 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="53" t="str">
+      <c r="A22" s="68"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v/>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
       <c r="K22" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="32"/>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33">
+        <f>0.5*1</f>
+        <v>0.5</v>
+      </c>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -3117,15 +3135,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="115"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3133,49 +3151,49 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=1)*K$25:K$42)</f>
-        <v>11.25</v>
+        <v>10.55</v>
       </c>
       <c r="L23" s="34">
-        <f t="shared" ref="L23:Q23" si="5">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
+        <f t="shared" ref="L23:Q23" si="4">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=1)*L$25:L$42)</f>
         <v>0</v>
       </c>
       <c r="M23" s="35">
+        <f t="shared" si="4"/>
+        <v>10.55</v>
+      </c>
+      <c r="N23" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="35">
+        <f t="shared" ref="R23:S23" si="5">SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="35">
         <f t="shared" si="5"/>
-        <v>11.25</v>
-      </c>
-      <c r="N23" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="35">
-        <f t="shared" ref="R23:S23" si="6">SUMPRODUCT((MOD(ROW(R$25:R$42),2)=1)*R$25:R$42)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="35">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="116"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3183,53 +3201,53 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L24" s="42">
-        <f t="shared" ref="L24:S24" si="7">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
+        <f t="shared" ref="L24:S24" si="6">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
         <v>0</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7.75</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1">
-      <c r="A25" s="68">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="54"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v/>
@@ -3247,13 +3265,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="55"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v/>
@@ -3271,17 +3289,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1">
-      <c r="A27" s="68"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3293,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" ref="K27:K34" si="8">SUM(L27:S27)</f>
+        <f t="shared" ref="K27:K34" si="7">SUM(L27:S27)</f>
         <v>1.25</v>
       </c>
       <c r="L27" s="30"/>
@@ -3308,25 +3326,31 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="53" t="str">
+      <c r="A28" s="68"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v/>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
+      <c r="I28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="8">
+        <v>5</v>
+      </c>
       <c r="K28" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.25</v>
       </c>
       <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="M28" s="31">
+        <v>1.25</v>
+      </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
@@ -3335,17 +3359,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1">
-      <c r="A29" s="68"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="58"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3357,7 +3381,7 @@
         <v>5</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="L29" s="30"/>
@@ -3372,25 +3396,31 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="53" t="str">
+      <c r="A30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v/>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
+      <c r="I30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
       <c r="K30" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="L30" s="48"/>
-      <c r="M30" s="49"/>
+      <c r="M30" s="31">
+        <v>2.5</v>
+      </c>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
@@ -3399,17 +3429,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1">
-      <c r="A31" s="68"/>
-      <c r="B31" s="70" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="58"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3421,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="L31" s="30"/>
@@ -3436,25 +3466,31 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="53" t="str">
+      <c r="A32" s="68"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v/>
       </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
+      <c r="I32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="8">
+        <v>5</v>
+      </c>
       <c r="K32" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2.5</v>
       </c>
       <c r="L32" s="48"/>
-      <c r="M32" s="49"/>
+      <c r="M32" s="31">
+        <v>2.5</v>
+      </c>
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
@@ -3463,17 +3499,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1">
-      <c r="A33" s="68"/>
-      <c r="B33" s="70" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="58"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3485,7 +3521,7 @@
         <v>5</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="L33" s="30"/>
@@ -3501,25 +3537,32 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="53" t="str">
+      <c r="A34" s="68"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="52" t="str">
         <f>IF(E33="","","実績")</f>
         <v/>
       </c>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
+      <c r="I34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="8">
+        <v>5</v>
+      </c>
       <c r="K34" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.5</v>
       </c>
       <c r="L34" s="41"/>
-      <c r="M34" s="32"/>
+      <c r="M34" s="31">
+        <f>0.5*3</f>
+        <v>1.5</v>
+      </c>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
@@ -3528,17 +3571,17 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1">
-      <c r="A35" s="68">
+      <c r="A35" s="67">
         <v>2</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="54"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
         <v/>
@@ -3556,13 +3599,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="55"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
         <v/>
@@ -3580,25 +3623,25 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1">
-      <c r="A37" s="68"/>
-      <c r="B37" s="70" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="58"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="52">
         <v>5</v>
       </c>
       <c r="K37" s="9">
@@ -3617,26 +3660,28 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="53" t="str">
+      <c r="A38" s="68"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v/>
       </c>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="10">
         <f>SUM(L38:S38)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="49">
+        <v>1.25</v>
+      </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
@@ -3644,17 +3689,17 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="70" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="58"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3681,26 +3726,28 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="53" t="str">
+      <c r="A40" s="68"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v/>
       </c>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="10">
         <f>SUM(L40:M40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="48"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="32"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="32">
+        <v>1.25</v>
+      </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
@@ -3708,17 +3755,17 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1">
-      <c r="A41" s="68"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="67"/>
+      <c r="B41" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="58"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="57"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3731,11 +3778,11 @@
       </c>
       <c r="K41" s="9">
         <f>SUM(L41:S41)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L41" s="33"/>
       <c r="M41" s="31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
@@ -3745,26 +3792,28 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="53" t="str">
+      <c r="A42" s="68"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="52" t="str">
         <f>IF(E41="","","実績")</f>
         <v/>
       </c>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
       <c r="K42" s="10">
         <f>SUM(L42:M42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="48"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="32"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="32">
+        <v>0.3</v>
+      </c>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
@@ -3772,15 +3821,15 @@
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="115"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3788,49 +3837,49 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=1)*K$45:K$58)</f>
-        <v>15.5</v>
+        <v>13.3</v>
       </c>
       <c r="L43" s="35">
-        <f t="shared" ref="L43:M43" si="9">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
+        <f t="shared" ref="L43:M43" si="8">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=1)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M43" s="35">
-        <f t="shared" si="9"/>
-        <v>6.5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="N43" s="35">
         <f>SUMPRODUCT((MOD(ROW(N$45:N$58),2)=1)*N$45:N$58)</f>
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O43" s="35">
-        <f t="shared" ref="O43:S43" si="10">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
+        <f t="shared" ref="O43:S43" si="9">SUMPRODUCT((MOD(ROW(O$45:O$58),2)=1)*O$45:O$58)</f>
         <v>0</v>
       </c>
       <c r="P43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S43" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="116"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="115"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3838,10 +3887,10 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>0</v>
+        <v>13.3</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
+        <f t="shared" ref="L44:S44" si="10">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
         <v>0</v>
       </c>
       <c r="M44" s="36">
@@ -3849,42 +3898,42 @@
         <v>0</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O44" s="36">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>13.3</v>
       </c>
       <c r="P44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1">
-      <c r="A45" s="68">
+      <c r="A45" s="67">
         <v>1</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="54"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
         <v/>
@@ -3902,13 +3951,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="55"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
         <v/>
@@ -3926,17 +3975,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="70" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="58"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -3964,44 +4013,46 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="53" t="str">
+      <c r="A48" s="68"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v/>
       </c>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="41"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="O48" s="32">
+        <v>5</v>
+      </c>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1">
-      <c r="A49" s="68"/>
-      <c r="B49" s="70" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="58"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="57"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4014,12 +4065,9 @@
       </c>
       <c r="K49" s="9">
         <f>SUM(L49:S49)</f>
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L49" s="33"/>
-      <c r="M49" s="31">
-        <v>1.5</v>
-      </c>
       <c r="N49" s="31">
         <f>1*5</f>
         <v>5</v>
@@ -4031,44 +4079,46 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1">
-      <c r="A50" s="69"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="53" t="str">
+      <c r="A50" s="68"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="52" t="str">
         <f>IF(E49="","","実績")</f>
         <v/>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
       <c r="K50" s="10">
         <f>SUM(L50:S50)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L50" s="41"/>
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
+      <c r="O50" s="32">
+        <v>5</v>
+      </c>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1">
-      <c r="A51" s="68">
+      <c r="A51" s="67">
         <v>2</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="54"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
         <v/>
@@ -4086,13 +4136,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
         <v/>
@@ -4110,17 +4160,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="70" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="58"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4132,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="K53" s="9">
-        <f t="shared" ref="K53:K58" si="12">SUM(L53:S53)</f>
+        <f t="shared" ref="K53:K58" si="11">SUM(L53:S53)</f>
         <v>1.5</v>
       </c>
       <c r="L53" s="33"/>
@@ -4147,44 +4197,46 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1">
-      <c r="A54" s="69"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="53" t="str">
+      <c r="A54" s="68"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v/>
       </c>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
       <c r="K54" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.5</v>
       </c>
       <c r="L54" s="41"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="32">
+        <v>1.5</v>
+      </c>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1">
-      <c r="A55" s="68"/>
-      <c r="B55" s="70" t="s">
+      <c r="A55" s="67"/>
+      <c r="B55" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="58"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4196,7 +4248,7 @@
         <v>5</v>
       </c>
       <c r="K55" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="L55" s="33"/>
@@ -4211,44 +4263,46 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1">
-      <c r="A56" s="69"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="53" t="str">
+      <c r="A56" s="68"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v/>
       </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.5</v>
       </c>
       <c r="L56" s="41"/>
       <c r="M56" s="32"/>
       <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
+      <c r="O56" s="32">
+        <v>1.5</v>
+      </c>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1">
-      <c r="A57" s="68"/>
-      <c r="B57" s="70" t="s">
+      <c r="A57" s="67"/>
+      <c r="B57" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="58"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="57"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4260,13 +4314,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0.3</v>
       </c>
       <c r="L57" s="33"/>
       <c r="M57" s="31"/>
       <c r="N57" s="31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="O57" s="31"/>
       <c r="P57" s="31"/>
@@ -4275,42 +4329,44 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1">
-      <c r="A58" s="69"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="53" t="str">
+      <c r="A58" s="68"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="52" t="str">
         <f>IF(E57="","","実績")</f>
         <v/>
       </c>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
       <c r="K58" s="10">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.3</v>
       </c>
       <c r="L58" s="43"/>
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
+      <c r="O58" s="44">
+        <v>0.3</v>
+      </c>
       <c r="P58" s="44"/>
       <c r="Q58" s="44"/>
       <c r="R58" s="44"/>
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="115"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4318,49 +4374,49 @@
       <c r="J59" s="20"/>
       <c r="K59" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=1)*K$61:K$76)</f>
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="L59" s="35">
-        <f t="shared" ref="L59:N59" si="13">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
+        <f t="shared" ref="L59:N59" si="12">SUMPRODUCT((MOD(ROW(L$61:L$76),2)=1)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N59" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O59" s="35">
         <f>SUMPRODUCT((MOD(ROW(O$61:O$76),2)=1)*O$61:O$76)</f>
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" ref="P59:S59" si="14">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
+        <f t="shared" ref="P59:S59" si="13">SUMPRODUCT((MOD(ROW(P$61:P$76),2)=1)*P$61:P$76)</f>
         <v>0</v>
       </c>
       <c r="Q59" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R59" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S59" s="35">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1">
-      <c r="A60" s="74"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="116"/>
+      <c r="A60" s="73"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="115"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4368,53 +4424,53 @@
       <c r="J60" s="7"/>
       <c r="K60" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$61:K$76),2)=0)*K$61:K$76)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L60" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$61:L$76),2)=0)*L$61:L$76)</f>
         <v>0</v>
       </c>
       <c r="M60" s="36">
-        <f t="shared" ref="M60:S60" si="15">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
+        <f t="shared" ref="M60:S60" si="14">SUMPRODUCT((MOD(ROW(M$61:M$76),2)=0)*M$61:M$76)</f>
         <v>0</v>
       </c>
       <c r="N60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O60" s="36">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2.5</v>
       </c>
       <c r="P60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S60" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1">
-      <c r="A61" s="68">
+      <c r="A61" s="67">
         <v>1</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="54"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="53"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
         <v/>
@@ -4432,13 +4488,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1">
-      <c r="A62" s="69"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="55"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
         <v/>
@@ -4456,17 +4512,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1">
-      <c r="A63" s="68"/>
-      <c r="B63" s="70" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="58"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4478,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="K63" s="9">
-        <f t="shared" ref="K63:K68" si="16">SUM(L63:S63)</f>
+        <f t="shared" ref="K63:K68" si="15">SUM(L63:S63)</f>
         <v>5</v>
       </c>
       <c r="L63" s="33"/>
@@ -4493,44 +4549,46 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1">
-      <c r="A64" s="69"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="53" t="str">
+      <c r="A64" s="68"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v/>
       </c>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
       <c r="K64" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>2.5</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
+      <c r="O64" s="32">
+        <v>2.5</v>
+      </c>
       <c r="P64" s="32"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1">
-      <c r="A65" s="68"/>
-      <c r="B65" s="70" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="58"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4542,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.5</v>
       </c>
       <c r="L65" s="33"/>
@@ -4557,21 +4615,21 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1">
-      <c r="A66" s="69"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="53" t="str">
+      <c r="A66" s="68"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v/>
       </c>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L66" s="41"/>
@@ -4584,17 +4642,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1">
-      <c r="A67" s="68"/>
-      <c r="B67" s="70" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="58"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4606,7 +4664,7 @@
         <v>5</v>
       </c>
       <c r="K67" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="L67" s="33"/>
@@ -4621,21 +4679,21 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1">
-      <c r="A68" s="69"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="53" t="str">
+      <c r="A68" s="68"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="52" t="str">
         <f>IF(E67="","","実績")</f>
         <v/>
       </c>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
       <c r="K68" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L68" s="41"/>
@@ -4648,17 +4706,17 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1">
-      <c r="A69" s="68">
+      <c r="A69" s="67">
         <v>2</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="54"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
         <v/>
@@ -4676,13 +4734,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1">
-      <c r="A70" s="69"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="55"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="54"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
         <v/>
@@ -4700,17 +4758,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1">
-      <c r="A71" s="68"/>
-      <c r="B71" s="70" t="s">
+      <c r="A71" s="67"/>
+      <c r="B71" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="58"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4722,7 +4780,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" ref="K71:K76" si="17">SUM(L71:S71)</f>
+        <f t="shared" ref="K71:K76" si="16">SUM(L71:S71)</f>
         <v>1.5</v>
       </c>
       <c r="L71" s="33"/>
@@ -4737,21 +4795,21 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1">
-      <c r="A72" s="69"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="53" t="str">
+      <c r="A72" s="68"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v/>
       </c>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
       <c r="K72" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L72" s="41"/>
@@ -4764,17 +4822,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1">
-      <c r="A73" s="68"/>
-      <c r="B73" s="70" t="s">
+      <c r="A73" s="67"/>
+      <c r="B73" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="62" t="s">
+      <c r="C73" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="58"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4786,7 +4844,7 @@
         <v>5</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1.5</v>
       </c>
       <c r="L73" s="33"/>
@@ -4801,21 +4859,21 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1">
-      <c r="A74" s="69"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="53" t="str">
+      <c r="A74" s="68"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v/>
       </c>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
       <c r="K74" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L74" s="41"/>
@@ -4828,17 +4886,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1">
-      <c r="A75" s="68"/>
-      <c r="B75" s="70" t="s">
+      <c r="A75" s="67"/>
+      <c r="B75" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="58"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="57"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4850,15 +4908,14 @@
         <v>1</v>
       </c>
       <c r="K75" s="9">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
+        <f t="shared" si="16"/>
+        <v>0.3</v>
       </c>
       <c r="L75" s="33"/>
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
       <c r="O75" s="31">
-        <f>0.5*1</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P75" s="31"/>
       <c r="Q75" s="31"/>
@@ -4866,21 +4923,21 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="53" t="str">
+      <c r="A76" s="68"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="52" t="str">
         <f>IF(E75="","","実績")</f>
         <v/>
       </c>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
       <c r="K76" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L76" s="43"/>
@@ -4893,15 +4950,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="73"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="115"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="114"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -4909,49 +4966,49 @@
       <c r="J77" s="20"/>
       <c r="K77" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$79:K$84),2)=1)*K$79:K$84)</f>
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="L77" s="35">
-        <f t="shared" ref="L77:P77" si="18">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
+        <f t="shared" ref="L77:P77" si="17">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=1)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O77" s="35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P77" s="35">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>12.5</v>
       </c>
       <c r="Q77" s="35">
         <f>SUMPRODUCT((MOD(ROW(Q$79:Q$84),2)=1)*Q$79:Q$84)</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R77" s="35">
-        <f t="shared" ref="R77:S77" si="19">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
+        <f t="shared" ref="R77:S77" si="18">SUMPRODUCT((MOD(ROW(R$79:R$84),2)=1)*R$79:R$84)</f>
         <v>0</v>
       </c>
       <c r="S77" s="35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1">
-      <c r="A78" s="74"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="116"/>
+      <c r="A78" s="73"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="115"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -4962,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="36">
-        <f t="shared" ref="L78:S78" si="20">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
+        <f t="shared" ref="L78:S78" si="19">SUMPRODUCT((MOD(ROW(L$79:L$84),2)=0)*L$79:L$84)</f>
         <v>0</v>
       </c>
       <c r="M78" s="36">
@@ -4970,42 +5027,42 @@
         <v>0</v>
       </c>
       <c r="N78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S78" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1">
-      <c r="A79" s="68">
+      <c r="A79" s="67">
         <v>1</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="54"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="53"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
         <v/>
@@ -5023,13 +5080,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1">
-      <c r="A80" s="69"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="55"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="54"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
         <v/>
@@ -5047,17 +5104,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1">
-      <c r="A81" s="68"/>
-      <c r="B81" s="70" t="s">
+      <c r="A81" s="67"/>
+      <c r="B81" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="62" t="s">
+      <c r="C81" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="58"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5069,36 +5126,36 @@
         <v>5</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" ref="K81:K84" si="21">SUM(L81:S81)</f>
-        <v>10</v>
+        <f t="shared" ref="K81:K84" si="20">SUM(L81:S81)</f>
+        <v>7.5</v>
       </c>
       <c r="L81" s="33"/>
       <c r="M81" s="31"/>
       <c r="N81" s="31"/>
       <c r="O81" s="31"/>
       <c r="P81" s="31">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Q81" s="31"/>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1">
-      <c r="A82" s="69"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="53" t="str">
+      <c r="A82" s="68"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v/>
       </c>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
       <c r="K82" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L82" s="41"/>
@@ -5111,17 +5168,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1">
-      <c r="A83" s="68"/>
-      <c r="B83" s="70" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="58"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="57"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5133,8 +5190,8 @@
         <v>5</v>
       </c>
       <c r="K83" s="9">
-        <f t="shared" si="21"/>
-        <v>7.5</v>
+        <f t="shared" si="20"/>
+        <v>9</v>
       </c>
       <c r="L83" s="33"/>
       <c r="M83" s="31"/>
@@ -5144,27 +5201,27 @@
         <v>5</v>
       </c>
       <c r="Q83" s="31">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1">
-      <c r="A84" s="69"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="53" t="str">
+      <c r="A84" s="68"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="52" t="str">
         <f>IF(E83="","","実績")</f>
         <v/>
       </c>
-      <c r="I84" s="53"/>
-      <c r="J84" s="53"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
       <c r="K84" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L84" s="41"/>
@@ -5177,15 +5234,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1">
-      <c r="A85" s="71" t="s">
+      <c r="A85" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="115"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="114"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5193,49 +5250,49 @@
       <c r="J85" s="20"/>
       <c r="K85" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$87:K$98),2)=1)*K$87:K$98)</f>
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L85" s="35">
-        <f t="shared" ref="L85:P85" si="22">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
+        <f t="shared" ref="L85:P85" si="21">SUMPRODUCT((MOD(ROW(L$87:L$98),2)=1)*L$87:L$98)</f>
         <v>0</v>
       </c>
       <c r="M85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P85" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q85" s="35">
         <f>SUMPRODUCT((MOD(ROW(Q$87:Q$98),2)=1)*Q$87:Q$98)</f>
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="R85" s="35">
-        <f t="shared" ref="R85:S85" si="23">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=1)*R$87:R$98)</f>
+        <f t="shared" ref="R85:S85" si="22">SUMPRODUCT((MOD(ROW(R$87:R$98),2)=1)*R$87:R$98)</f>
         <v>0</v>
       </c>
       <c r="S85" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1">
-      <c r="A86" s="74"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="116"/>
+      <c r="A86" s="73"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5250,46 +5307,46 @@
         <v>0</v>
       </c>
       <c r="M86" s="36">
-        <f t="shared" ref="M86:S86" si="24">SUMPRODUCT((MOD(ROW(M$87:M$98),2)=0)*M$87:M$98)</f>
+        <f t="shared" ref="M86:S86" si="23">SUMPRODUCT((MOD(ROW(M$87:M$98),2)=0)*M$87:M$98)</f>
         <v>0</v>
       </c>
       <c r="N86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S86" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1">
-      <c r="A87" s="68">
+      <c r="A87" s="67">
         <v>1</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="54"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="53"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
         <v/>
@@ -5307,13 +5364,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1">
-      <c r="A88" s="69"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="55"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="54"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
         <v/>
@@ -5331,17 +5388,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1">
-      <c r="A89" s="68"/>
-      <c r="B89" s="70" t="s">
+      <c r="A89" s="67"/>
+      <c r="B89" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="62" t="s">
+      <c r="C89" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="58"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5368,19 +5425,19 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1">
-      <c r="A90" s="69"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="57"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="53" t="str">
+      <c r="A90" s="68"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v/>
       </c>
-      <c r="I90" s="53"/>
-      <c r="J90" s="53"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
       <c r="K90" s="10">
         <f>SUM(L90:S90)</f>
         <v>0</v>
@@ -5395,17 +5452,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1">
-      <c r="A91" s="68"/>
-      <c r="B91" s="70" t="s">
+      <c r="A91" s="67"/>
+      <c r="B91" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="121" t="s">
+      <c r="C91" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="58"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="57"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5432,19 +5489,19 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1">
-      <c r="A92" s="69"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="53" t="str">
+      <c r="A92" s="68"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="52" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
       </c>
-      <c r="I92" s="53"/>
-      <c r="J92" s="53"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
       <c r="K92" s="10">
         <f>SUM(L92:S92)</f>
         <v>0</v>
@@ -5459,17 +5516,17 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1">
-      <c r="A93" s="68">
+      <c r="A93" s="67">
         <v>2</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="54"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="53"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
         <v/>
@@ -5487,13 +5544,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1">
-      <c r="A94" s="69"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="55"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="54"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
         <v/>
@@ -5511,17 +5568,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1">
-      <c r="A95" s="68"/>
-      <c r="B95" s="70" t="s">
+      <c r="A95" s="67"/>
+      <c r="B95" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="62" t="s">
+      <c r="C95" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="64"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="58"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5533,7 +5590,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" ref="K95:K98" si="25">SUM(L95:S95)</f>
+        <f t="shared" ref="K95:K98" si="24">SUM(L95:S95)</f>
         <v>1.25</v>
       </c>
       <c r="L95" s="33"/>
@@ -5548,21 +5605,21 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1">
-      <c r="A96" s="69"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="53" t="str">
+      <c r="A96" s="68"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v/>
       </c>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
       <c r="K96" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L96" s="41"/>
@@ -5575,17 +5632,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1">
-      <c r="A97" s="68"/>
-      <c r="B97" s="70" t="s">
+      <c r="A97" s="67"/>
+      <c r="B97" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="C97" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="58"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5597,8 +5654,8 @@
         <v>1</v>
       </c>
       <c r="K97" s="9">
-        <f t="shared" si="25"/>
-        <v>0.5</v>
+        <f t="shared" si="24"/>
+        <v>0.3</v>
       </c>
       <c r="L97" s="33"/>
       <c r="M97" s="31"/>
@@ -5606,27 +5663,27 @@
       <c r="O97" s="31"/>
       <c r="P97" s="31"/>
       <c r="Q97" s="31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R97" s="31"/>
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1">
-      <c r="A98" s="69"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="57"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="53" t="str">
+      <c r="A98" s="68"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="52" t="str">
         <f>IF(E97="","","実績")</f>
         <v/>
       </c>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L98" s="43"/>
@@ -5639,15 +5696,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="72"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="115"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="114"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5655,34 +5712,34 @@
       <c r="J99" s="20"/>
       <c r="K99" s="21">
         <f>SUMPRODUCT((MOD(ROW(K$101:K$112),2)=1)*K$101:K$112)</f>
-        <v>5.75</v>
+        <v>5.55</v>
       </c>
       <c r="L99" s="35">
-        <f t="shared" ref="L99:R99" si="26">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
+        <f t="shared" ref="L99:R99" si="25">SUMPRODUCT((MOD(ROW(L$101:L$112),2)=1)*L$101:L$112)</f>
         <v>0</v>
       </c>
       <c r="M99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q99" s="35">
-        <f t="shared" si="26"/>
-        <v>5.75</v>
+        <f t="shared" si="25"/>
+        <v>5.55</v>
       </c>
       <c r="R99" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S99" s="35">
@@ -5691,13 +5748,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1">
-      <c r="A100" s="74"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="116"/>
+      <c r="A100" s="73"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="115"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5712,46 +5769,46 @@
         <v>0</v>
       </c>
       <c r="M100" s="37">
-        <f t="shared" ref="M100:S100" si="27">SUMPRODUCT((MOD(ROW(M$101:M$112),2)=0)*M$101:M$112)</f>
+        <f t="shared" ref="M100:S100" si="26">SUMPRODUCT((MOD(ROW(M$101:M$112),2)=0)*M$101:M$112)</f>
         <v>0</v>
       </c>
       <c r="N100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S100" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1">
-      <c r="A101" s="68">
+      <c r="A101" s="67">
         <v>1</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B101" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="60"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="54"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="53"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
         <v/>
@@ -5769,13 +5826,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1">
-      <c r="A102" s="69"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="55"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="54"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
         <v/>
@@ -5793,17 +5850,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1">
-      <c r="A103" s="68"/>
-      <c r="B103" s="70" t="s">
+      <c r="A103" s="67"/>
+      <c r="B103" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="58"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5831,19 +5888,19 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1">
-      <c r="A104" s="69"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="53" t="str">
+      <c r="A104" s="68"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v/>
       </c>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
       <c r="K104" s="10">
         <f>SUM(L104:S104)</f>
         <v>0</v>
@@ -5858,17 +5915,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1">
-      <c r="A105" s="68"/>
-      <c r="B105" s="70" t="s">
+      <c r="A105" s="67"/>
+      <c r="B105" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D105" s="64"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="58"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="57"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5896,19 +5953,19 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1">
-      <c r="A106" s="69"/>
-      <c r="B106" s="59"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="53" t="str">
+      <c r="A106" s="68"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="52" t="str">
         <f>IF(E105="","","実績")</f>
         <v/>
       </c>
-      <c r="I106" s="53"/>
-      <c r="J106" s="53"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
       <c r="K106" s="10">
         <f>SUM(L106:S106)</f>
         <v>0</v>
@@ -5923,17 +5980,17 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1">
-      <c r="A107" s="68">
+      <c r="A107" s="67">
         <v>2</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="63"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="54"/>
+      <c r="C107" s="62"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="53"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
         <v/>
@@ -5951,13 +6008,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1">
-      <c r="A108" s="69"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="61"/>
-      <c r="F108" s="61"/>
-      <c r="G108" s="55"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
         <v/>
@@ -5975,17 +6032,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1">
-      <c r="A109" s="68"/>
-      <c r="B109" s="70" t="s">
+      <c r="A109" s="67"/>
+      <c r="B109" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C109" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D109" s="64"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
-      <c r="G109" s="58"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -5997,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="K109" s="9">
-        <f t="shared" ref="K109:K112" si="28">SUM(L109:S109)</f>
+        <f t="shared" ref="K109:K112" si="27">SUM(L109:S109)</f>
         <v>1.25</v>
       </c>
       <c r="L109" s="33"/>
@@ -6012,21 +6069,21 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1">
-      <c r="A110" s="69"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="57"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="53" t="str">
+      <c r="A110" s="68"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v/>
       </c>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
       <c r="K110" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L110" s="41"/>
@@ -6039,17 +6096,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1">
-      <c r="A111" s="68"/>
-      <c r="B111" s="70" t="s">
+      <c r="A111" s="67"/>
+      <c r="B111" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C111" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D111" s="64"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56"/>
-      <c r="G111" s="58"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="57"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6061,8 +6118,8 @@
         <v>1</v>
       </c>
       <c r="K111" s="9">
-        <f t="shared" si="28"/>
-        <v>0.5</v>
+        <f t="shared" si="27"/>
+        <v>0.3</v>
       </c>
       <c r="L111" s="33"/>
       <c r="M111" s="31"/>
@@ -6070,28 +6127,27 @@
       <c r="O111" s="31"/>
       <c r="P111" s="31"/>
       <c r="Q111" s="31">
-        <f>0.5*1</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R111" s="31"/>
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1">
-      <c r="A112" s="69"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="57"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="53" t="str">
+      <c r="A112" s="68"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="52" t="str">
         <f>IF(E111="","","実績")</f>
         <v/>
       </c>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
       <c r="K112" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L112" s="41"/>
@@ -6436,20 +6492,12 @@
     <mergeCell ref="E111:E112"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L9:S18 L25:S36 L87:S98 L101:S112">
-    <cfRule type="expression" dxfId="17" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="L87:S98 L101:S112 L45:S47 L50:S58 N49:S49 M48:S48 L48:L49 L9:S18 L25:S36">
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45:S58">
-    <cfRule type="expression" dxfId="15" priority="25" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L45), L45&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="26" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L45), L45&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
@@ -6531,6 +6579,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6714,29 +6777,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E388BD-71B4-4ABA-AC82-000400793F6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61E388BD-71B4-4ABA-AC82-000400793F6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>